--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>4,045.35</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4,657.90</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4,886.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,297.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5,696.63</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5,297.78</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4,886.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4,657.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4,045.35</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5696.63</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>4045.35</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>4916.84</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>4,045.35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4,657.90</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4,886.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5,297.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>5,696.63</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5,297.78</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4,886.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4,657.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4,045.35</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>5696.63</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>4045.35</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>4916.84</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>403.81</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>453.03</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>480.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>522.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>560.67</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>522.84</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>480.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>453.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>403.81</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>560.67</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>403.81</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>484.262</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>31.85</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>37.89</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>63.79</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>56.47</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>38.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>31.85</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>63.79</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>31.85</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>45.786</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>444.60</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>541.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>581.25</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>541.77</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>444.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>581.25</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>444.6</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>522.54</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>800.90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>565.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>998.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>642.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>679.58</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>642.50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>998.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>565.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>800.90</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>998.0700000000001</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>565.6799999999999</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>737.346</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2,808.79</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3,156.70</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3,368.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3,534.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>3,811.34</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3,534.20</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3,368.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3,156.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2,808.79</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>3811.34</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>2808.79</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>3335.922</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>1.07</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>48.04</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>12.8</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,856.83</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,163.34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,369.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3,541.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>3,812.41</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3,541.23</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3,369.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3,163.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,856.83</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3812.41</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2856.83</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>3348.722</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,428.19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,578.64</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,644.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,797.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,952.38</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1,797.19</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,644.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,578.64</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,428.19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1952.38</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1428.19</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>1680.124</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,428.64</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,584.70</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,725.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,744.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,860.03</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,744.04</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,725.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,584.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,428.64</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1860.03</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1428.64</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1668.598</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,428.64</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,584.70</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,725.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,744.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,860.03</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,744.04</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,725.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,584.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,428.64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1860.03</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1428.64</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1668.598</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>508.36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>561.97</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>611.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>619.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>483.36</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>619.31</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>611.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>561.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>508.36</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>619.3099999999999</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>483.36</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>556.9979999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>920.28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,022.73</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,113.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,124.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,376.67</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,124.73</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1,113.59</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,022.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>920.28</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1376.67</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>920.28</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1111.6</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>920.28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,022.73</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,113.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,124.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,376.67</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,124.73</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,113.59</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,022.73</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>920.28</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1376.67</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>920.28</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1111.6</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>115.29</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>115.31</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>115.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>115.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>115.55</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>115.49</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>115.37</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>115.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>115.29</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>115.55</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>115.29</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>115.402</v>
       </c>
     </row>
     <row r="20"/>
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>23.83</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19.49</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15.97</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>19.268</v>
       </c>
     </row>
     <row r="23">
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>23.66</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>19.34</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>19.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>15.84</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>23.66</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>19.12</v>
       </c>
     </row>
     <row r="24"/>
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>23.83</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>19.49</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>15.97</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>19.268</v>
       </c>
     </row>
     <row r="27">
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>23.66</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>19.34</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>19.16</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>15.84</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>23.66</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>19.12</v>
       </c>
     </row>
     <row r="28"/>
